--- a/Inversio inicial.xlsx
+++ b/Inversio inicial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Classe\2 DAM\Projecte Final\projecteFinalJoelPol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F7AC9B-D766-40A7-AA51-BEF5B3BB4623}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EE497D-1976-4806-ABAA-EB3D95E21341}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25605" yWindow="270" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-4815" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GARDEN BUDGET" sheetId="1" r:id="rId1"/>
@@ -412,6 +412,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -423,18 +435,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1747,8 +1747,8 @@
   </sheetPr>
   <dimension ref="B1:J21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1765,74 +1765,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="95.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="2:10" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5"/>
       <c r="C2" s="14"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
     </row>
     <row r="3" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="12"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
     </row>
     <row r="4" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
     </row>
     <row r="5" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="12"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
     </row>
     <row r="6" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
     </row>
     <row r="7" spans="2:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="12"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
     </row>
     <row r="8" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
@@ -2053,17 +2053,17 @@
       </c>
     </row>
     <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="20"/>
-      <c r="C20" s="22" t="s">
+      <c r="B20" s="16"/>
+      <c r="C20" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="17">
         <v>1</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="19">
         <v>25</v>
       </c>
       <c r="G20" s="6">
